--- a/storage/excel/summary11.xlsx
+++ b/storage/excel/summary11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="15960" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15960" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="11.1" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="245">
   <si>
     <t>จำนวน</t>
   </si>
@@ -643,9 +643,6 @@
     <t>ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3002</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu826</t>
   </si>
   <si>
@@ -731,6 +728,33 @@
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้เฉลี่ยราคาของทั้ง 3 ขนาดถังก่อน UID = (ราคา 4 กก, ราคา 15 กก, ราคา 48 กก) โดยราคาที่เก็บมาเป็นราคาต่อกก แล้ว</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o1_nu834</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1118,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,34 +1173,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1503,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="BW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BZ23" sqref="BZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1939,331 +1963,331 @@
       <c r="DL6" s="34"/>
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="L7" s="69" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="L7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="V7" s="69" t="s">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="V7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AF7" s="69" t="s">
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AF7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AP7" s="69" t="s">
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AP7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AZ7" s="69" t="s">
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AZ7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="69"/>
-      <c r="BH7" s="69"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
       <c r="BI7" s="11"/>
-      <c r="BJ7" s="70" t="s">
+      <c r="BJ7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="71"/>
-      <c r="BQ7" s="71"/>
-      <c r="BR7" s="71"/>
-      <c r="BS7" s="71"/>
-      <c r="BT7" s="71"/>
-      <c r="BU7" s="71"/>
-      <c r="BV7" s="71"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="59"/>
+      <c r="BN7" s="59"/>
+      <c r="BO7" s="59"/>
+      <c r="BP7" s="59"/>
+      <c r="BQ7" s="59"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="59"/>
+      <c r="BU7" s="59"/>
+      <c r="BV7" s="59"/>
       <c r="BW7" s="11"/>
-      <c r="BX7" s="70" t="s">
+      <c r="BX7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="BY7" s="70"/>
-      <c r="BZ7" s="70"/>
-      <c r="CA7" s="70"/>
-      <c r="CB7" s="70"/>
-      <c r="CC7" s="70"/>
-      <c r="CD7" s="70"/>
-      <c r="CE7" s="70"/>
-      <c r="CF7" s="70"/>
-      <c r="CG7" s="70"/>
-      <c r="CH7" s="70"/>
-      <c r="CI7" s="70"/>
-      <c r="CJ7" s="70"/>
-      <c r="CL7" s="69" t="s">
+      <c r="BY7" s="52"/>
+      <c r="BZ7" s="52"/>
+      <c r="CA7" s="52"/>
+      <c r="CB7" s="52"/>
+      <c r="CC7" s="52"/>
+      <c r="CD7" s="52"/>
+      <c r="CE7" s="52"/>
+      <c r="CF7" s="52"/>
+      <c r="CG7" s="52"/>
+      <c r="CH7" s="52"/>
+      <c r="CI7" s="52"/>
+      <c r="CJ7" s="52"/>
+      <c r="CL7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="CM7" s="69"/>
-      <c r="CN7" s="69"/>
-      <c r="CO7" s="69"/>
-      <c r="CP7" s="69"/>
-      <c r="CQ7" s="69"/>
-      <c r="CR7" s="69"/>
-      <c r="CS7" s="69"/>
-      <c r="CT7" s="69"/>
-      <c r="CU7" s="69"/>
-      <c r="CV7" s="69"/>
-      <c r="CW7" s="69"/>
-      <c r="CX7" s="69"/>
-      <c r="CZ7" s="70" t="s">
+      <c r="CM7" s="57"/>
+      <c r="CN7" s="57"/>
+      <c r="CO7" s="57"/>
+      <c r="CP7" s="57"/>
+      <c r="CQ7" s="57"/>
+      <c r="CR7" s="57"/>
+      <c r="CS7" s="57"/>
+      <c r="CT7" s="57"/>
+      <c r="CU7" s="57"/>
+      <c r="CV7" s="57"/>
+      <c r="CW7" s="57"/>
+      <c r="CX7" s="57"/>
+      <c r="CZ7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="DA7" s="70"/>
-      <c r="DB7" s="70"/>
-      <c r="DC7" s="70"/>
-      <c r="DD7" s="70"/>
-      <c r="DE7" s="70"/>
-      <c r="DF7" s="70"/>
-      <c r="DG7" s="70"/>
-      <c r="DH7" s="70"/>
-      <c r="DI7" s="70"/>
-      <c r="DJ7" s="70"/>
-      <c r="DK7" s="70"/>
-      <c r="DL7" s="70"/>
+      <c r="DA7" s="52"/>
+      <c r="DB7" s="52"/>
+      <c r="DC7" s="52"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+      <c r="DI7" s="52"/>
+      <c r="DJ7" s="52"/>
+      <c r="DK7" s="52"/>
+      <c r="DL7" s="52"/>
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="65" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="L8" s="67" t="s">
+      <c r="J8" s="58"/>
+      <c r="L8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="65" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="62" t="s">
+      <c r="P8" s="56"/>
+      <c r="Q8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62" t="s">
+      <c r="R8" s="58"/>
+      <c r="S8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="62"/>
-      <c r="V8" s="67" t="s">
+      <c r="T8" s="58"/>
+      <c r="V8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="65" t="s">
+      <c r="W8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="65" t="s">
+      <c r="X8" s="56"/>
+      <c r="Y8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="62" t="s">
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62" t="s">
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AF8" s="67" t="s">
+      <c r="AD8" s="58"/>
+      <c r="AF8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="65" t="s">
+      <c r="AG8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="65" t="s">
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="62" t="s">
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62" t="s">
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="62"/>
-      <c r="AP8" s="67" t="s">
+      <c r="AN8" s="58"/>
+      <c r="AP8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AQ8" s="65" t="s">
+      <c r="AQ8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="65" t="s">
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="62" t="s">
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62" t="s">
+      <c r="AV8" s="58"/>
+      <c r="AW8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AX8" s="62"/>
-      <c r="AZ8" s="67" t="s">
+      <c r="AX8" s="58"/>
+      <c r="AZ8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="BA8" s="65" t="s">
+      <c r="BA8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="65" t="s">
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="62" t="s">
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62" t="s">
+      <c r="BF8" s="58"/>
+      <c r="BG8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH8" s="62"/>
+      <c r="BH8" s="58"/>
       <c r="BI8" s="2"/>
-      <c r="BJ8" s="52" t="s">
+      <c r="BJ8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="BK8" s="53" t="s">
+      <c r="BK8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="54"/>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="55" t="s">
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BR8" s="55"/>
-      <c r="BS8" s="55"/>
-      <c r="BT8" s="55"/>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
+      <c r="BR8" s="63"/>
+      <c r="BS8" s="63"/>
+      <c r="BT8" s="63"/>
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
       <c r="BW8" s="2"/>
-      <c r="BX8" s="52" t="s">
+      <c r="BX8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="BY8" s="53" t="s">
+      <c r="BY8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="54"/>
-      <c r="CB8" s="54"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="55" t="s">
+      <c r="BZ8" s="62"/>
+      <c r="CA8" s="62"/>
+      <c r="CB8" s="62"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="62"/>
+      <c r="CE8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="CF8" s="55"/>
-      <c r="CG8" s="55"/>
-      <c r="CH8" s="55"/>
-      <c r="CI8" s="55"/>
-      <c r="CJ8" s="55"/>
-      <c r="CL8" s="63" t="s">
+      <c r="CF8" s="63"/>
+      <c r="CG8" s="63"/>
+      <c r="CH8" s="63"/>
+      <c r="CI8" s="63"/>
+      <c r="CJ8" s="63"/>
+      <c r="CL8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="CM8" s="60" t="s">
+      <c r="CM8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="CN8" s="60"/>
-      <c r="CO8" s="60"/>
-      <c r="CP8" s="60"/>
-      <c r="CQ8" s="60"/>
-      <c r="CR8" s="61"/>
-      <c r="CS8" s="62" t="s">
+      <c r="CN8" s="68"/>
+      <c r="CO8" s="68"/>
+      <c r="CP8" s="68"/>
+      <c r="CQ8" s="68"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="CT8" s="62"/>
-      <c r="CU8" s="62"/>
-      <c r="CV8" s="62"/>
-      <c r="CW8" s="62"/>
-      <c r="CX8" s="62"/>
-      <c r="CZ8" s="52" t="s">
+      <c r="CT8" s="58"/>
+      <c r="CU8" s="58"/>
+      <c r="CV8" s="58"/>
+      <c r="CW8" s="58"/>
+      <c r="CX8" s="58"/>
+      <c r="CZ8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="DA8" s="53" t="s">
+      <c r="DA8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="DB8" s="54"/>
-      <c r="DC8" s="54"/>
-      <c r="DD8" s="54"/>
-      <c r="DE8" s="54"/>
-      <c r="DF8" s="54"/>
-      <c r="DG8" s="55" t="s">
+      <c r="DB8" s="62"/>
+      <c r="DC8" s="62"/>
+      <c r="DD8" s="62"/>
+      <c r="DE8" s="62"/>
+      <c r="DF8" s="62"/>
+      <c r="DG8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="DH8" s="55"/>
-      <c r="DI8" s="55"/>
-      <c r="DJ8" s="55"/>
-      <c r="DK8" s="55"/>
-      <c r="DL8" s="55"/>
+      <c r="DH8" s="63"/>
+      <c r="DI8" s="63"/>
+      <c r="DJ8" s="63"/>
+      <c r="DK8" s="63"/>
+      <c r="DL8" s="63"/>
     </row>
     <row r="9" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2312,7 @@
       <c r="J9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="68"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="23" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2337,7 @@
       <c r="T9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="68"/>
+      <c r="V9" s="54"/>
       <c r="W9" s="23" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2362,7 @@
       <c r="AD9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AF9" s="68"/>
+      <c r="AF9" s="54"/>
       <c r="AG9" s="23" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2387,7 @@
       <c r="AN9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AP9" s="68"/>
+      <c r="AP9" s="54"/>
       <c r="AQ9" s="23" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2412,7 @@
       <c r="AX9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AZ9" s="68"/>
+      <c r="AZ9" s="54"/>
       <c r="BA9" s="23" t="s">
         <v>0</v>
       </c>
@@ -2414,107 +2438,107 @@
         <v>2</v>
       </c>
       <c r="BI9" s="2"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="53" t="s">
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="53" t="s">
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="53" t="s">
+      <c r="BN9" s="62"/>
+      <c r="BO9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BP9" s="56"/>
-      <c r="BQ9" s="55" t="s">
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BR9" s="55"/>
-      <c r="BS9" s="55" t="s">
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BT9" s="55"/>
-      <c r="BU9" s="55" t="s">
+      <c r="BT9" s="63"/>
+      <c r="BU9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BV9" s="55"/>
+      <c r="BV9" s="63"/>
       <c r="BW9" s="2"/>
-      <c r="BX9" s="52"/>
-      <c r="BY9" s="53" t="s">
+      <c r="BX9" s="60"/>
+      <c r="BY9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="BZ9" s="54"/>
-      <c r="CA9" s="53" t="s">
+      <c r="BZ9" s="62"/>
+      <c r="CA9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="CB9" s="54"/>
-      <c r="CC9" s="53" t="s">
+      <c r="CB9" s="62"/>
+      <c r="CC9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="CD9" s="56"/>
-      <c r="CE9" s="55" t="s">
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="CF9" s="55"/>
-      <c r="CG9" s="55" t="s">
+      <c r="CF9" s="63"/>
+      <c r="CG9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="CH9" s="55"/>
-      <c r="CI9" s="55" t="s">
+      <c r="CH9" s="63"/>
+      <c r="CI9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="CJ9" s="55"/>
-      <c r="CL9" s="63"/>
-      <c r="CM9" s="60" t="s">
+      <c r="CJ9" s="63"/>
+      <c r="CL9" s="70"/>
+      <c r="CM9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="CN9" s="60"/>
-      <c r="CO9" s="64" t="s">
+      <c r="CN9" s="68"/>
+      <c r="CO9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="CP9" s="60"/>
-      <c r="CQ9" s="64" t="s">
+      <c r="CP9" s="68"/>
+      <c r="CQ9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="CR9" s="61"/>
-      <c r="CS9" s="62" t="s">
+      <c r="CR9" s="69"/>
+      <c r="CS9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="CT9" s="62"/>
-      <c r="CU9" s="62" t="s">
+      <c r="CT9" s="58"/>
+      <c r="CU9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="CV9" s="62"/>
-      <c r="CW9" s="62" t="s">
+      <c r="CV9" s="58"/>
+      <c r="CW9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="CX9" s="62"/>
-      <c r="CZ9" s="52"/>
-      <c r="DA9" s="53" t="s">
+      <c r="CX9" s="58"/>
+      <c r="CZ9" s="60"/>
+      <c r="DA9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="DB9" s="54"/>
-      <c r="DC9" s="53" t="s">
+      <c r="DB9" s="62"/>
+      <c r="DC9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="DD9" s="54"/>
-      <c r="DE9" s="53" t="s">
+      <c r="DD9" s="62"/>
+      <c r="DE9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="DF9" s="56"/>
-      <c r="DG9" s="55" t="s">
+      <c r="DF9" s="64"/>
+      <c r="DG9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="DH9" s="55"/>
-      <c r="DI9" s="55" t="s">
+      <c r="DH9" s="63"/>
+      <c r="DI9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="DJ9" s="55"/>
-      <c r="DK9" s="55" t="s">
+      <c r="DJ9" s="63"/>
+      <c r="DK9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="DL9" s="55"/>
+      <c r="DL9" s="63"/>
     </row>
     <row r="10" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -2607,7 +2631,7 @@
       <c r="BF10" s="16"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
-      <c r="BJ10" s="52"/>
+      <c r="BJ10" s="60"/>
       <c r="BK10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2668,7 @@
       <c r="BV10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BX10" s="52"/>
+      <c r="BX10" s="60"/>
       <c r="BY10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2705,7 @@
       <c r="CJ10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="CL10" s="63"/>
+      <c r="CL10" s="70"/>
       <c r="CM10" s="24" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2742,7 @@
       <c r="CX10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="CZ10" s="52"/>
+      <c r="CZ10" s="60"/>
       <c r="DA10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2881,21 +2905,21 @@
       <c r="CH11" s="16"/>
       <c r="CI11" s="16"/>
       <c r="CJ11" s="16"/>
-      <c r="CL11" s="57" t="s">
+      <c r="CL11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="CM11" s="58"/>
-      <c r="CN11" s="58"/>
-      <c r="CO11" s="58"/>
-      <c r="CP11" s="58"/>
-      <c r="CQ11" s="58"/>
-      <c r="CR11" s="58"/>
-      <c r="CS11" s="58"/>
-      <c r="CT11" s="58"/>
-      <c r="CU11" s="58"/>
-      <c r="CV11" s="58"/>
-      <c r="CW11" s="58"/>
-      <c r="CX11" s="59"/>
+      <c r="CM11" s="66"/>
+      <c r="CN11" s="66"/>
+      <c r="CO11" s="66"/>
+      <c r="CP11" s="66"/>
+      <c r="CQ11" s="66"/>
+      <c r="CR11" s="66"/>
+      <c r="CS11" s="66"/>
+      <c r="CT11" s="66"/>
+      <c r="CU11" s="66"/>
+      <c r="CV11" s="66"/>
+      <c r="CW11" s="66"/>
+      <c r="CX11" s="67"/>
       <c r="CZ11" s="10" t="s">
         <v>7</v>
       </c>
@@ -3900,6 +3924,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="CZ8:CZ10"/>
+    <mergeCell ref="DA8:DF8"/>
+    <mergeCell ref="DG8:DL8"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DK9:DL9"/>
+    <mergeCell ref="CL11:CX11"/>
+    <mergeCell ref="CM8:CR8"/>
+    <mergeCell ref="CS8:CX8"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CL8:CL10"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="CU9:CV9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CE8:CJ8"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BX8:BX10"/>
+    <mergeCell ref="BY8:CD8"/>
+    <mergeCell ref="BJ8:BJ10"/>
+    <mergeCell ref="BK8:BP8"/>
+    <mergeCell ref="BQ8:BV8"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AF7:AN7"/>
+    <mergeCell ref="AP7:AX7"/>
+    <mergeCell ref="AZ7:BH7"/>
+    <mergeCell ref="BJ7:BV7"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BB8"/>
     <mergeCell ref="BX7:CJ7"/>
     <mergeCell ref="CZ7:DL7"/>
     <mergeCell ref="B8:B9"/>
@@ -3916,67 +4001,6 @@
     <mergeCell ref="CL7:CX7"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="V7:AD7"/>
-    <mergeCell ref="AF7:AN7"/>
-    <mergeCell ref="AP7:AX7"/>
-    <mergeCell ref="AZ7:BH7"/>
-    <mergeCell ref="BJ7:BV7"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BX8:BX10"/>
-    <mergeCell ref="BY8:CD8"/>
-    <mergeCell ref="BJ8:BJ10"/>
-    <mergeCell ref="BK8:BP8"/>
-    <mergeCell ref="BQ8:BV8"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="CE8:CJ8"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CL11:CX11"/>
-    <mergeCell ref="CM8:CR8"/>
-    <mergeCell ref="CS8:CX8"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CL8:CL10"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="CU9:CV9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CZ8:CZ10"/>
-    <mergeCell ref="DA8:DF8"/>
-    <mergeCell ref="DG8:DL8"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DK9:DL9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3987,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY23" sqref="AY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4503,337 +4527,337 @@
       <c r="DP6" s="34"/>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="J7" s="69" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="J7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="R7" s="69" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="R7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Z7" s="69" t="s">
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Z7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AH7" s="69" t="s">
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AH7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AP7" s="69" t="s">
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AP7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
       <c r="AW7" s="11"/>
-      <c r="AX7" s="70" t="s">
+      <c r="AX7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
       <c r="BK7" s="11"/>
-      <c r="BL7" s="70" t="s">
+      <c r="BL7" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
-      <c r="BP7" s="70"/>
-      <c r="BQ7" s="70"/>
-      <c r="BR7" s="70"/>
-      <c r="BS7" s="70"/>
-      <c r="BT7" s="70"/>
-      <c r="BU7" s="70"/>
-      <c r="BV7" s="70"/>
-      <c r="BW7" s="70"/>
-      <c r="BX7" s="70"/>
-      <c r="BY7" s="70"/>
-      <c r="CA7" s="69" t="s">
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="52"/>
+      <c r="BQ7" s="52"/>
+      <c r="BR7" s="52"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="52"/>
+      <c r="BU7" s="52"/>
+      <c r="BV7" s="52"/>
+      <c r="BW7" s="52"/>
+      <c r="BX7" s="52"/>
+      <c r="BY7" s="52"/>
+      <c r="CA7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="CB7" s="69"/>
-      <c r="CC7" s="69"/>
-      <c r="CD7" s="69"/>
-      <c r="CE7" s="69"/>
-      <c r="CF7" s="69"/>
-      <c r="CG7" s="69"/>
-      <c r="CH7" s="69"/>
-      <c r="CI7" s="69"/>
-      <c r="CJ7" s="69"/>
-      <c r="CK7" s="69"/>
-      <c r="CL7" s="69"/>
-      <c r="CM7" s="69"/>
-      <c r="CO7" s="70" t="s">
+      <c r="CB7" s="57"/>
+      <c r="CC7" s="57"/>
+      <c r="CD7" s="57"/>
+      <c r="CE7" s="57"/>
+      <c r="CF7" s="57"/>
+      <c r="CG7" s="57"/>
+      <c r="CH7" s="57"/>
+      <c r="CI7" s="57"/>
+      <c r="CJ7" s="57"/>
+      <c r="CK7" s="57"/>
+      <c r="CL7" s="57"/>
+      <c r="CM7" s="57"/>
+      <c r="CO7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="CP7" s="70"/>
-      <c r="CQ7" s="70"/>
-      <c r="CR7" s="70"/>
-      <c r="CS7" s="70"/>
-      <c r="CT7" s="70"/>
-      <c r="CU7" s="70"/>
-      <c r="CV7" s="70"/>
-      <c r="CW7" s="70"/>
-      <c r="CX7" s="70"/>
-      <c r="CY7" s="70"/>
-      <c r="CZ7" s="70"/>
-      <c r="DA7" s="70"/>
-      <c r="DC7" s="70" t="s">
+      <c r="CP7" s="52"/>
+      <c r="CQ7" s="52"/>
+      <c r="CR7" s="52"/>
+      <c r="CS7" s="52"/>
+      <c r="CT7" s="52"/>
+      <c r="CU7" s="52"/>
+      <c r="CV7" s="52"/>
+      <c r="CW7" s="52"/>
+      <c r="CX7" s="52"/>
+      <c r="CY7" s="52"/>
+      <c r="CZ7" s="52"/>
+      <c r="DA7" s="52"/>
+      <c r="DC7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="DD7" s="70"/>
-      <c r="DE7" s="70"/>
-      <c r="DF7" s="70"/>
-      <c r="DG7" s="70"/>
-      <c r="DH7" s="70"/>
-      <c r="DI7" s="70"/>
-      <c r="DJ7" s="70"/>
-      <c r="DK7" s="70"/>
-      <c r="DL7" s="70"/>
-      <c r="DM7" s="70"/>
-      <c r="DN7" s="70"/>
-      <c r="DO7" s="70"/>
-      <c r="DP7" s="70"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+      <c r="DI7" s="52"/>
+      <c r="DJ7" s="52"/>
+      <c r="DK7" s="52"/>
+      <c r="DL7" s="52"/>
+      <c r="DM7" s="52"/>
+      <c r="DN7" s="52"/>
+      <c r="DO7" s="52"/>
+      <c r="DP7" s="52"/>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="58"/>
+      <c r="J8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="62" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62" t="s">
+      <c r="N8" s="58"/>
+      <c r="O8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="62"/>
-      <c r="R8" s="67" t="s">
+      <c r="P8" s="58"/>
+      <c r="R8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="62" t="s">
+      <c r="T8" s="56"/>
+      <c r="U8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62" t="s">
+      <c r="V8" s="58"/>
+      <c r="W8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="62"/>
-      <c r="Z8" s="67" t="s">
+      <c r="X8" s="58"/>
+      <c r="Z8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="AA8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="62" t="s">
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62" t="s">
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="62"/>
-      <c r="AH8" s="67" t="s">
+      <c r="AF8" s="58"/>
+      <c r="AH8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AI8" s="65" t="s">
+      <c r="AI8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="62" t="s">
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62" t="s">
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="62"/>
-      <c r="AP8" s="67" t="s">
+      <c r="AN8" s="58"/>
+      <c r="AP8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AQ8" s="65" t="s">
+      <c r="AQ8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="62" t="s">
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62" t="s">
+      <c r="AT8" s="58"/>
+      <c r="AU8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AV8" s="62"/>
+      <c r="AV8" s="58"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="52" t="s">
+      <c r="AX8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AY8" s="53" t="s">
+      <c r="AY8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="55" t="s">
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="55"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="55"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
       <c r="BK8" s="2"/>
-      <c r="BL8" s="52" t="s">
+      <c r="BL8" s="60" t="s">
         <v>12</v>
       </c>
       <c r="BM8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BN8" s="53" t="s">
+      <c r="BN8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="54"/>
-      <c r="BS8" s="54"/>
-      <c r="BT8" s="55" t="s">
+      <c r="BO8" s="62"/>
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="62"/>
+      <c r="BR8" s="62"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="55"/>
-      <c r="BX8" s="55"/>
-      <c r="BY8" s="55"/>
-      <c r="CA8" s="63" t="s">
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
+      <c r="BW8" s="63"/>
+      <c r="BX8" s="63"/>
+      <c r="BY8" s="63"/>
+      <c r="CA8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="CB8" s="60" t="s">
+      <c r="CB8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="CC8" s="60"/>
-      <c r="CD8" s="60"/>
-      <c r="CE8" s="60"/>
-      <c r="CF8" s="60"/>
-      <c r="CG8" s="61"/>
-      <c r="CH8" s="62" t="s">
+      <c r="CC8" s="68"/>
+      <c r="CD8" s="68"/>
+      <c r="CE8" s="68"/>
+      <c r="CF8" s="68"/>
+      <c r="CG8" s="69"/>
+      <c r="CH8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="CI8" s="62"/>
-      <c r="CJ8" s="62"/>
-      <c r="CK8" s="62"/>
-      <c r="CL8" s="62"/>
-      <c r="CM8" s="62"/>
-      <c r="CO8" s="52" t="s">
+      <c r="CI8" s="58"/>
+      <c r="CJ8" s="58"/>
+      <c r="CK8" s="58"/>
+      <c r="CL8" s="58"/>
+      <c r="CM8" s="58"/>
+      <c r="CO8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="CP8" s="53" t="s">
+      <c r="CP8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="CQ8" s="54"/>
-      <c r="CR8" s="54"/>
-      <c r="CS8" s="54"/>
-      <c r="CT8" s="54"/>
-      <c r="CU8" s="54"/>
-      <c r="CV8" s="55" t="s">
+      <c r="CQ8" s="62"/>
+      <c r="CR8" s="62"/>
+      <c r="CS8" s="62"/>
+      <c r="CT8" s="62"/>
+      <c r="CU8" s="62"/>
+      <c r="CV8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="CW8" s="55"/>
-      <c r="CX8" s="55"/>
-      <c r="CY8" s="55"/>
-      <c r="CZ8" s="55"/>
-      <c r="DA8" s="55"/>
-      <c r="DC8" s="52" t="s">
+      <c r="CW8" s="63"/>
+      <c r="CX8" s="63"/>
+      <c r="CY8" s="63"/>
+      <c r="CZ8" s="63"/>
+      <c r="DA8" s="63"/>
+      <c r="DC8" s="60" t="s">
         <v>12</v>
       </c>
       <c r="DD8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="DE8" s="53" t="s">
+      <c r="DE8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="DF8" s="54"/>
-      <c r="DG8" s="54"/>
-      <c r="DH8" s="54"/>
-      <c r="DI8" s="54"/>
-      <c r="DJ8" s="54"/>
-      <c r="DK8" s="55" t="s">
+      <c r="DF8" s="62"/>
+      <c r="DG8" s="62"/>
+      <c r="DH8" s="62"/>
+      <c r="DI8" s="62"/>
+      <c r="DJ8" s="62"/>
+      <c r="DK8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="DL8" s="55"/>
-      <c r="DM8" s="55"/>
-      <c r="DN8" s="55"/>
-      <c r="DO8" s="55"/>
-      <c r="DP8" s="55"/>
+      <c r="DL8" s="63"/>
+      <c r="DM8" s="63"/>
+      <c r="DN8" s="63"/>
+      <c r="DO8" s="63"/>
+      <c r="DP8" s="63"/>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4852,7 +4876,7 @@
       <c r="H9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +4895,7 @@
       <c r="P9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="68"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +4914,7 @@
       <c r="X9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="68"/>
+      <c r="Z9" s="54"/>
       <c r="AA9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4933,7 @@
       <c r="AF9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AH9" s="68"/>
+      <c r="AH9" s="54"/>
       <c r="AI9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4952,7 @@
       <c r="AN9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AP9" s="68"/>
+      <c r="AP9" s="54"/>
       <c r="AQ9" s="23" t="s">
         <v>0</v>
       </c>
@@ -4948,134 +4972,134 @@
         <v>2</v>
       </c>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="53" t="s">
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="53" t="s">
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="53" t="s">
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BD9" s="56"/>
-      <c r="BE9" s="55" t="s">
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55" t="s">
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="55" t="s">
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BJ9" s="55"/>
+      <c r="BJ9" s="63"/>
       <c r="BK9" s="2"/>
-      <c r="BL9" s="52"/>
+      <c r="BL9" s="60"/>
       <c r="BM9" s="73"/>
-      <c r="BN9" s="53" t="s">
+      <c r="BN9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="53" t="s">
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="53" t="s">
+      <c r="BQ9" s="62"/>
+      <c r="BR9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BS9" s="56"/>
-      <c r="BT9" s="55" t="s">
+      <c r="BS9" s="64"/>
+      <c r="BT9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BU9" s="55"/>
-      <c r="BV9" s="55" t="s">
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BW9" s="55"/>
-      <c r="BX9" s="55" t="s">
+      <c r="BW9" s="63"/>
+      <c r="BX9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BY9" s="55"/>
-      <c r="CA9" s="63"/>
-      <c r="CB9" s="60" t="s">
+      <c r="BY9" s="63"/>
+      <c r="CA9" s="70"/>
+      <c r="CB9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="CC9" s="60"/>
-      <c r="CD9" s="64" t="s">
+      <c r="CC9" s="68"/>
+      <c r="CD9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="CE9" s="60"/>
-      <c r="CF9" s="64" t="s">
+      <c r="CE9" s="68"/>
+      <c r="CF9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="CG9" s="61"/>
-      <c r="CH9" s="62" t="s">
+      <c r="CG9" s="69"/>
+      <c r="CH9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="CI9" s="62"/>
-      <c r="CJ9" s="62" t="s">
+      <c r="CI9" s="58"/>
+      <c r="CJ9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="CK9" s="62"/>
-      <c r="CL9" s="62" t="s">
+      <c r="CK9" s="58"/>
+      <c r="CL9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="CM9" s="62"/>
-      <c r="CO9" s="52"/>
-      <c r="CP9" s="53" t="s">
+      <c r="CM9" s="58"/>
+      <c r="CO9" s="60"/>
+      <c r="CP9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="CQ9" s="54"/>
-      <c r="CR9" s="53" t="s">
+      <c r="CQ9" s="62"/>
+      <c r="CR9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="CS9" s="54"/>
-      <c r="CT9" s="53" t="s">
+      <c r="CS9" s="62"/>
+      <c r="CT9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="CU9" s="56"/>
-      <c r="CV9" s="55" t="s">
+      <c r="CU9" s="64"/>
+      <c r="CV9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="CW9" s="55"/>
-      <c r="CX9" s="55" t="s">
+      <c r="CW9" s="63"/>
+      <c r="CX9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="CY9" s="55"/>
-      <c r="CZ9" s="55" t="s">
+      <c r="CY9" s="63"/>
+      <c r="CZ9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="DA9" s="55"/>
-      <c r="DC9" s="52"/>
+      <c r="DA9" s="63"/>
+      <c r="DC9" s="60"/>
       <c r="DD9" s="73"/>
-      <c r="DE9" s="53" t="s">
+      <c r="DE9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="DF9" s="54"/>
-      <c r="DG9" s="53" t="s">
+      <c r="DF9" s="62"/>
+      <c r="DG9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="DH9" s="54"/>
-      <c r="DI9" s="53" t="s">
+      <c r="DH9" s="62"/>
+      <c r="DI9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="DJ9" s="56"/>
-      <c r="DK9" s="55" t="s">
+      <c r="DJ9" s="64"/>
+      <c r="DK9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="DL9" s="55"/>
-      <c r="DM9" s="55" t="s">
+      <c r="DL9" s="63"/>
+      <c r="DM9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="DN9" s="55"/>
-      <c r="DO9" s="55" t="s">
+      <c r="DN9" s="63"/>
+      <c r="DO9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="DP9" s="55"/>
+      <c r="DP9" s="63"/>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -5150,7 +5174,7 @@
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
-      <c r="AX10" s="52"/>
+      <c r="AX10" s="60"/>
       <c r="AY10" s="21" t="s">
         <v>4</v>
       </c>
@@ -5187,7 +5211,7 @@
       <c r="BJ10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BL10" s="52"/>
+      <c r="BL10" s="60"/>
       <c r="BM10" s="74"/>
       <c r="BN10" s="21" t="s">
         <v>4</v>
@@ -5225,7 +5249,7 @@
       <c r="BY10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="CA10" s="63"/>
+      <c r="CA10" s="70"/>
       <c r="CB10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5262,7 +5286,7 @@
       <c r="CM10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="CO10" s="52"/>
+      <c r="CO10" s="60"/>
       <c r="CP10" s="21" t="s">
         <v>4</v>
       </c>
@@ -5299,7 +5323,7 @@
       <c r="DA10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="DC10" s="52"/>
+      <c r="DC10" s="60"/>
       <c r="DD10" s="74"/>
       <c r="DE10" s="21" t="s">
         <v>4</v>
@@ -5448,21 +5472,21 @@
       <c r="BW11" s="16"/>
       <c r="BX11" s="16"/>
       <c r="BY11" s="16"/>
-      <c r="CA11" s="57" t="s">
+      <c r="CA11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="CB11" s="58"/>
-      <c r="CC11" s="58"/>
-      <c r="CD11" s="58"/>
-      <c r="CE11" s="58"/>
-      <c r="CF11" s="58"/>
-      <c r="CG11" s="58"/>
-      <c r="CH11" s="58"/>
-      <c r="CI11" s="58"/>
-      <c r="CJ11" s="58"/>
-      <c r="CK11" s="58"/>
-      <c r="CL11" s="58"/>
-      <c r="CM11" s="59"/>
+      <c r="CB11" s="66"/>
+      <c r="CC11" s="66"/>
+      <c r="CD11" s="66"/>
+      <c r="CE11" s="66"/>
+      <c r="CF11" s="66"/>
+      <c r="CG11" s="66"/>
+      <c r="CH11" s="66"/>
+      <c r="CI11" s="66"/>
+      <c r="CJ11" s="66"/>
+      <c r="CK11" s="66"/>
+      <c r="CL11" s="66"/>
+      <c r="CM11" s="67"/>
       <c r="CO11" s="10" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6094,9 @@
       <c r="AX15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AY15" s="16"/>
+      <c r="AY15" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="AZ15" s="16"/>
       <c r="BA15" s="16"/>
       <c r="BB15" s="16"/>
@@ -6089,7 +6115,7 @@
         <v>52</v>
       </c>
       <c r="BN15" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BO15" s="16"/>
       <c r="BP15" s="16"/>
@@ -6233,7 +6259,9 @@
       <c r="AX16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AY16" s="16"/>
+      <c r="AY16" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="AZ16" s="16"/>
       <c r="BA16" s="16"/>
       <c r="BB16" s="16"/>
@@ -6252,7 +6280,7 @@
         <v>52</v>
       </c>
       <c r="BN16" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BO16" s="16"/>
       <c r="BP16" s="16"/>
@@ -6396,7 +6424,9 @@
       <c r="AX17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AY17" s="16"/>
+      <c r="AY17" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="AZ17" s="16"/>
       <c r="BA17" s="16"/>
       <c r="BB17" s="16"/>
@@ -6415,7 +6445,7 @@
         <v>52</v>
       </c>
       <c r="BN17" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BO17" s="16"/>
       <c r="BP17" s="16"/>
@@ -6557,7 +6587,9 @@
       <c r="AX18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AY18" s="16"/>
+      <c r="AY18" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="AZ18" s="16"/>
       <c r="BA18" s="16"/>
       <c r="BB18" s="16"/>
@@ -6576,7 +6608,7 @@
         <v>52</v>
       </c>
       <c r="BN18" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BO18" s="16"/>
       <c r="BP18" s="16"/>
@@ -6720,7 +6752,9 @@
       <c r="AX19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AY19" s="16"/>
+      <c r="AY19" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="AZ19" s="16"/>
       <c r="BA19" s="16"/>
       <c r="BB19" s="16"/>
@@ -6739,7 +6773,7 @@
         <v>52</v>
       </c>
       <c r="BN19" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO19" s="16"/>
       <c r="BP19" s="16"/>
@@ -6883,7 +6917,9 @@
       <c r="AX20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AY20" s="16"/>
+      <c r="AY20" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="AZ20" s="16"/>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
@@ -6902,7 +6938,7 @@
         <v>52</v>
       </c>
       <c r="BN20" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BO20" s="16"/>
       <c r="BP20" s="16"/>
@@ -7044,7 +7080,9 @@
       <c r="AX21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AY21" s="16"/>
+      <c r="AY21" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="AZ21" s="16"/>
       <c r="BA21" s="16"/>
       <c r="BB21" s="16"/>
@@ -7063,7 +7101,7 @@
         <v>52</v>
       </c>
       <c r="BN21" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BO21" s="16"/>
       <c r="BP21" s="16"/>
@@ -7207,7 +7245,9 @@
       <c r="AX22" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="AY22" s="16"/>
+      <c r="AY22" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="AZ22" s="16"/>
       <c r="BA22" s="16"/>
       <c r="BB22" s="16"/>
@@ -7226,7 +7266,7 @@
         <v>50</v>
       </c>
       <c r="BN22" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BO22" s="16"/>
       <c r="BP22" s="16"/>
@@ -7261,7 +7301,7 @@
         <v>62</v>
       </c>
       <c r="CP22" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CQ22" s="16"/>
       <c r="CR22" s="16"/>
@@ -7281,7 +7321,7 @@
         <v>50</v>
       </c>
       <c r="DE22" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="DF22" s="16"/>
       <c r="DG22" s="16"/>
@@ -7390,7 +7430,7 @@
         <v>50</v>
       </c>
       <c r="BN23" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BO23" s="16"/>
       <c r="BP23" s="16"/>
@@ -7423,7 +7463,7 @@
         <v>63</v>
       </c>
       <c r="CP23" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CQ23" s="16"/>
       <c r="CR23" s="16"/>
@@ -7443,7 +7483,7 @@
         <v>50</v>
       </c>
       <c r="DE23" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="DF23" s="16"/>
       <c r="DG23" s="16"/>
@@ -7552,7 +7592,7 @@
         <v>10</v>
       </c>
       <c r="AY24" s="16" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="AZ24" s="16"/>
       <c r="BA24" s="16"/>
@@ -7622,7 +7662,7 @@
       </c>
       <c r="DD24" s="16"/>
       <c r="DE24" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="DF24" s="16"/>
       <c r="DG24" s="16"/>
@@ -7671,10 +7711,10 @@
     </row>
     <row r="26" spans="2:120" x14ac:dyDescent="0.2">
       <c r="AX26" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BL26" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BM26" s="42"/>
       <c r="BN26" s="18"/>
@@ -7705,15 +7745,15 @@
       <c r="CL26" s="45"/>
       <c r="CM26" s="46"/>
       <c r="CO26" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:120" x14ac:dyDescent="0.2">
       <c r="AX27" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BL27" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BM27" s="42"/>
       <c r="BN27" s="18"/>
@@ -7746,12 +7786,12 @@
       <c r="CL27" s="16"/>
       <c r="CM27" s="16"/>
       <c r="DC27" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:120" x14ac:dyDescent="0.2">
       <c r="AX28" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BM28" s="42"/>
       <c r="BN28" s="18"/>
@@ -7786,7 +7826,7 @@
     </row>
     <row r="29" spans="2:120" x14ac:dyDescent="0.2">
       <c r="BL29" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CA29" s="9" t="s">
         <v>21</v>
@@ -7806,7 +7846,7 @@
     </row>
     <row r="30" spans="2:120" x14ac:dyDescent="0.2">
       <c r="BL30" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA30" s="10" t="s">
         <v>17</v>
@@ -8087,7 +8127,7 @@
         <v>17</v>
       </c>
       <c r="CB45" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CC45" s="16"/>
       <c r="CD45" s="16"/>
@@ -8106,7 +8146,7 @@
         <v>18</v>
       </c>
       <c r="CB46" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CC46" s="16"/>
       <c r="CD46" s="16"/>
@@ -8142,7 +8182,7 @@
         <v>17</v>
       </c>
       <c r="CB48" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CC48" s="16"/>
       <c r="CD48" s="16"/>
@@ -8161,7 +8201,7 @@
         <v>18</v>
       </c>
       <c r="CB49" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CC49" s="16"/>
       <c r="CD49" s="16"/>
@@ -8197,7 +8237,7 @@
         <v>17</v>
       </c>
       <c r="CB51" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CC51" s="16"/>
       <c r="CD51" s="16"/>
@@ -8216,7 +8256,7 @@
         <v>18</v>
       </c>
       <c r="CB52" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CC52" s="16"/>
       <c r="CD52" s="16"/>
@@ -8232,6 +8272,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="CA11:CM11"/>
+    <mergeCell ref="CO8:CO10"/>
+    <mergeCell ref="DK9:DL9"/>
+    <mergeCell ref="DM9:DN9"/>
+    <mergeCell ref="DO9:DP9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="DC8:DC10"/>
+    <mergeCell ref="DE8:DJ8"/>
+    <mergeCell ref="DK8:DP8"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="CH8:CM8"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="BL8:BL10"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="CA8:CA10"/>
+    <mergeCell ref="CB8:CG8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AX8:AX10"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AP7:AV7"/>
+    <mergeCell ref="CA7:CM7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="AH7:AN7"/>
     <mergeCell ref="AX7:BJ7"/>
     <mergeCell ref="BM8:BM10"/>
     <mergeCell ref="BL7:BY7"/>
@@ -8248,73 +8355,6 @@
     <mergeCell ref="BG9:BH9"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="Z7:AF7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AP7:AV7"/>
-    <mergeCell ref="CA7:CM7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AX8:AX10"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BL8:BL10"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="CA8:CA10"/>
-    <mergeCell ref="CB8:CG8"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="CH8:CM8"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CA11:CM11"/>
-    <mergeCell ref="CO8:CO10"/>
-    <mergeCell ref="DK9:DL9"/>
-    <mergeCell ref="DM9:DN9"/>
-    <mergeCell ref="DO9:DP9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="DC8:DC10"/>
-    <mergeCell ref="DE8:DJ8"/>
-    <mergeCell ref="DK8:DP8"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
